--- a/bin/config/xlsx/Item.xlsx
+++ b/bin/config/xlsx/Item.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="24500" windowHeight="10140"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="1" r:id="rId1"/>
@@ -755,7 +755,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1005,13 +1005,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="$A9:$XFD9"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -1037,94 +1037,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
-      <c r="B6" t="s">
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12">
-        <v>3</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13">
-        <v>4</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14">
-        <v>5</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15">
-        <v>6</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16">
-        <v>7</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17">
-        <v>8</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18">
-        <v>9</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19">
-        <v>10</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -1132,7 +1052,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -1140,7 +1060,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -1148,7 +1068,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -1156,87 +1076,87 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B24">
-        <v>999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B25">
-        <v>999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B26">
-        <v>999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B27">
-        <v>999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B28">
-        <v>999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B29">
-        <v>999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B30">
-        <v>999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B31">
-        <v>999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B32">
-        <v>999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B33">
-        <v>999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B34">
         <v>999</v>
@@ -1244,7 +1164,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B35">
         <v>999</v>
@@ -1252,7 +1172,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B36">
         <v>999</v>
@@ -1260,9 +1180,89 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37">
+        <v>18</v>
+      </c>
+      <c r="B37">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38">
+        <v>19</v>
+      </c>
+      <c r="B38">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39">
+        <v>20</v>
+      </c>
+      <c r="B39">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40">
+        <v>21</v>
+      </c>
+      <c r="B40">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41">
+        <v>22</v>
+      </c>
+      <c r="B41">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42">
+        <v>23</v>
+      </c>
+      <c r="B42">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43">
+        <v>24</v>
+      </c>
+      <c r="B43">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44">
+        <v>25</v>
+      </c>
+      <c r="B44">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45">
+        <v>26</v>
+      </c>
+      <c r="B45">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46">
+        <v>27</v>
+      </c>
+      <c r="B46">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47">
         <v>28</v>
       </c>
-      <c r="B37">
+      <c r="B47">
         <v>999</v>
       </c>
     </row>

--- a/bin/config/xlsx/Item.xlsx
+++ b/bin/config/xlsx/Item.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24500" windowHeight="10140"/>
+    <workbookView windowWidth="14550" windowHeight="8715"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="1" r:id="rId1"/>
@@ -755,7 +755,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1007,11 +1007,11 @@
   <sheetPr/>
   <dimension ref="A1:B47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -1119,7 +1119,7 @@
         <v>10</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:2">

--- a/bin/config/xlsx/Item.xlsx
+++ b/bin/config/xlsx/Item.xlsx
@@ -1007,8 +1007,8 @@
   <sheetPr/>
   <dimension ref="A1:B47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1111,7 +1111,7 @@
         <v>9</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1119,7 +1119,7 @@
         <v>10</v>
       </c>
       <c r="B29">
-        <v>2</v>
+        <v>999</v>
       </c>
     </row>
     <row r="30" spans="1:2">

--- a/bin/config/xlsx/Item.xlsx
+++ b/bin/config/xlsx/Item.xlsx
@@ -1008,7 +1008,7 @@
   <dimension ref="A1:B47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1127,7 +1127,7 @@
         <v>11</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>999</v>
       </c>
     </row>
     <row r="31" spans="1:2">
